--- a/src/data/CH_EK/clueLayout.xlsx
+++ b/src/data/CH_EK/clueLayout.xlsx
@@ -1,26 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\clueLayout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ebenezer Koranteng\Documents\clueLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="24000" windowHeight="11484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="18">
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,12 +99,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,14 +143,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA71959"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -336,152 +445,1738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="U6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5">
+        <v>8</v>
+      </c>
+      <c r="K23" s="5">
+        <v>9</v>
+      </c>
+      <c r="L23" s="5">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>11</v>
+      </c>
+      <c r="N23" s="5">
+        <v>12</v>
+      </c>
+      <c r="O23" s="5">
+        <v>13</v>
+      </c>
+      <c r="P23" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>15</v>
+      </c>
+      <c r="R23" s="5">
+        <v>16</v>
+      </c>
+      <c r="S23" s="5">
+        <v>17</v>
+      </c>
+      <c r="T23" s="5">
+        <v>18</v>
+      </c>
+      <c r="U23" s="5">
+        <v>19</v>
+      </c>
+      <c r="V23" s="5">
+        <v>20</v>
+      </c>
+      <c r="W23" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/CH_EK/clueLayout.xlsx
+++ b/src/data/CH_EK/clueLayout.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ebenezer Koranteng\Documents\clueLayout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\CluePaths\src\data\CH_EK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="444" windowWidth="24000" windowHeight="11484"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="22">
   <si>
     <t>L</t>
   </si>
@@ -83,7 +83,19 @@
     <t>GR</t>
   </si>
   <si>
-    <t>HB</t>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IU</t>
   </si>
 </sst>
 </file>
@@ -448,17 +460,17 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -532,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -606,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -680,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -754,7 +766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -801,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>3</v>
@@ -828,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -863,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>2</v>
@@ -902,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -976,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1346,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1401,14 +1413,14 @@
       <c r="R13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>6</v>
+      <c r="S13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>2</v>
@@ -1420,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1494,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1765,8 +1777,8 @@
       <c r="P18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>6</v>
+      <c r="Q18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>6</v>
@@ -1790,7 +1802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>0</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
